--- a/exercises/ex020.IPR.xlsx
+++ b/exercises/ex020.IPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96919B-1154-4711-BAAC-A69CE891FF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB9A0A1-62AA-4884-9239-5826BED31AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -43,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -997,10 +999,10 @@
                   <c:v>121.05628309018496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.89439013405214</c:v>
+                  <c:v>110.89439013405213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.02727433529388</c:v>
+                  <c:v>100.02727433529387</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>88.220870330268156</c:v>
@@ -1009,13 +1011,13 @@
                   <c:v>75.082562520816197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.833402917957898</c:v>
+                  <c:v>59.833402917957891</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>40.383204097085397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8181536965155018E-13</c:v>
+                  <c:v>2.8374524951857438E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,22 +1081,22 @@
                   <c:v>128.94371690981504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>138.86246436441624</c:v>
+                  <c:v>138.86246436441616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>148.78121181901744</c:v>
+                  <c:v>148.78121181901739</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>158.69995927361836</c:v>
+                  <c:v>158.69995927361862</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>168.61870672821959</c:v>
+                  <c:v>168.61870672821951</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>178.53745418282082</c:v>
+                  <c:v>178.53745418282074</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>188.45620163742174</c:v>
+                  <c:v>188.45620163742197</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>198.37494909202306</c:v>
@@ -1151,10 +1153,10 @@
                   <c:v>121.05628309018496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.89439013405214</c:v>
+                  <c:v>110.89439013405213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.02727433529388</c:v>
+                  <c:v>100.02727433529387</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>88.220870330268156</c:v>
@@ -1163,13 +1165,13 @@
                   <c:v>75.082562520816197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.833402917957898</c:v>
+                  <c:v>59.833402917957891</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>40.383204097085397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8181536965155018E-13</c:v>
+                  <c:v>2.8374524951857438E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,61 +1245,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.368418855343721</c:v>
+                  <c:v>11.369480273926047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.753693311341493</c:v>
+                  <c:v>22.755726411610283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.157814817970888</c:v>
+                  <c:v>34.160717482328714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.583169097694871</c:v>
+                  <c:v>45.586824441121927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.032634834885613</c:v>
+                  <c:v>57.036908214118228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.509713569228055</c:v>
+                  <c:v>68.514448794621998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.018702943340585</c:v>
+                  <c:v>80.023717424070071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.564931179940118</c:v>
+                  <c:v>91.570009620730346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.15507961351499</c:v>
+                  <c:v>103.15996571161351</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.79763442816692</c:v>
+                  <c:v>114.80201975798941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.50353230307131</c:v>
+                  <c:v>126.507041162972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138.287104544736</c:v>
+                  <c:v>138.28927286883359</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150.16749411795843</c:v>
+                  <c:v>150.16773942848292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>169.43647302473826</c:v>
+                  <c:v>168.09411887438162</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192.75304291394997</c:v>
+                  <c:v>189.7818482430749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>222.094070855702</c:v>
+                  <c:v>217.33157026860897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>262.23047457210657</c:v>
+                  <c:v>255.66074585936946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>325.78606278517208</c:v>
+                  <c:v>317.73047354511971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>465.75856271997071</c:v>
+                  <c:v>457.42694238338601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,10 +1353,10 @@
                   <c:v>121.05628309018496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.89439013405214</c:v>
+                  <c:v>110.89439013405213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.02727433529388</c:v>
+                  <c:v>100.02727433529387</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>88.220870330268156</c:v>
@@ -1363,13 +1365,13 @@
                   <c:v>75.082562520816197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.833402917957898</c:v>
+                  <c:v>59.833402917957891</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>40.383204097085397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8181536965155018E-13</c:v>
+                  <c:v>2.8374524951857438E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,22 +1791,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4969555207744616E-2</c:v>
+                  <c:v>4.7405492764113481E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1198770739868955</c:v>
+                  <c:v>0.10606398003000826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.194852955458755</c:v>
+                  <c:v>0.17716080918997171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28468458401074792</c:v>
+                  <c:v>0.26624346318470665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39896468138768959</c:v>
+                  <c:v>0.3836613043519102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56366548959158924</c:v>
+                  <c:v>0.55565884481981209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,10 +1860,10 @@
                   <c:v>121.05628309018496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.89439013405214</c:v>
+                  <c:v>110.89439013405213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.02727433529388</c:v>
+                  <c:v>100.02727433529387</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>88.220870330268156</c:v>
@@ -1870,13 +1872,13 @@
                   <c:v>75.082562520816197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.833402917957898</c:v>
+                  <c:v>59.833402917957891</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>40.383204097085397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8181536965155018E-13</c:v>
+                  <c:v>2.8374524951857438E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,25 +2692,25 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="22" max="32" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2717,36 +2719,36 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11">
         <f>gamma_oil_*1000</f>
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2790,13 +2792,13 @@
       </c>
       <c r="E10" s="11">
         <f>Rsb_/gamma_oil_</f>
-        <v>91.954022988505741</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2808,13 +2810,13 @@
       </c>
       <c r="E11" s="11">
         <f>Rsb_/gamma_oil_</f>
-        <v>91.954022988505741</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2863,7 +2865,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +2878,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2894,26 +2896,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="9">
         <f>[1]!PVT_pb_atma(Tres_,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
-        <v>120</v>
+        <v>119.99999999999999</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="11">
         <f>Pb_*1.01325/10</f>
-        <v>12.159000000000001</v>
+        <v>12.158999999999999</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2923,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2943,12 +2945,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -2983,12 +2985,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2997,13 +2999,13 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="17" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.880;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -3023,17 +3025,17 @@
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="14">
         <v>0</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41" s="14">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
         <v>9.9187474546011547</v>
@@ -3086,14 +3088,14 @@
       </c>
       <c r="G41" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E41,fw_,D41,Tres_,PVT_str_)</f>
-        <v>11.368418855343721</v>
+        <v>11.369480273926047</v>
       </c>
       <c r="H41" s="10">
         <f>[1]!MF_gas_fraction_d(D41,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="14">
         <f t="shared" si="0"/>
         <v>19.837494909202309</v>
@@ -3108,14 +3110,14 @@
       </c>
       <c r="G42" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E42,fw_,D42,Tres_,PVT_str_)</f>
-        <v>22.753693311341493</v>
+        <v>22.755726411610283</v>
       </c>
       <c r="H42" s="10">
         <f>[1]!MF_gas_fraction_d(D42,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="14">
         <f t="shared" si="0"/>
         <v>29.756242363803466</v>
@@ -3130,14 +3132,14 @@
       </c>
       <c r="G43" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E43,fw_,D43,Tres_,PVT_str_)</f>
-        <v>34.157814817970888</v>
+        <v>34.160717482328714</v>
       </c>
       <c r="H43" s="10">
         <f>[1]!MF_gas_fraction_d(D43,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" s="14">
         <f t="shared" si="0"/>
         <v>39.674989818404619</v>
@@ -3152,14 +3154,14 @@
       </c>
       <c r="G44" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E44,fw_,D44,Tres_,PVT_str_)</f>
-        <v>45.583169097694871</v>
+        <v>45.586824441121927</v>
       </c>
       <c r="H44" s="10">
         <f>[1]!MF_gas_fraction_d(D44,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="14">
         <f t="shared" si="0"/>
         <v>49.593737273005772</v>
@@ -3174,14 +3176,14 @@
       </c>
       <c r="G45" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E45,fw_,D45,Tres_,PVT_str_)</f>
-        <v>57.032634834885613</v>
+        <v>57.036908214118228</v>
       </c>
       <c r="H45" s="10">
         <f>[1]!MF_gas_fraction_d(D45,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="14">
         <f t="shared" si="0"/>
         <v>59.512484727606925</v>
@@ -3196,14 +3198,14 @@
       </c>
       <c r="G46" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E46,fw_,D46,Tres_,PVT_str_)</f>
-        <v>68.509713569228055</v>
+        <v>68.514448794621998</v>
       </c>
       <c r="H46" s="10">
         <f>[1]!MF_gas_fraction_d(D46,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="14">
         <f t="shared" si="0"/>
         <v>69.431232182208078</v>
@@ -3218,14 +3220,14 @@
       </c>
       <c r="G47" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E47,fw_,D47,Tres_,PVT_str_)</f>
-        <v>80.018702943340585</v>
+        <v>80.023717424070071</v>
       </c>
       <c r="H47" s="10">
         <f>[1]!MF_gas_fraction_d(D47,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C48" s="14">
         <f t="shared" si="0"/>
         <v>79.349979636809238</v>
@@ -3240,14 +3242,14 @@
       </c>
       <c r="G48" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E48,fw_,D48,Tres_,PVT_str_)</f>
-        <v>91.564931179940118</v>
+        <v>91.570009620730346</v>
       </c>
       <c r="H48" s="10">
         <f>[1]!MF_gas_fraction_d(D48,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="14">
         <f t="shared" si="0"/>
         <v>89.268727091410398</v>
@@ -3262,14 +3264,14 @@
       </c>
       <c r="G49" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E49,fw_,D49,Tres_,PVT_str_)</f>
-        <v>103.15507961351499</v>
+        <v>103.15996571161351</v>
       </c>
       <c r="H49" s="10">
         <f>[1]!MF_gas_fraction_d(D49,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" s="14">
         <f t="shared" si="0"/>
         <v>99.187474546011558</v>
@@ -3284,14 +3286,14 @@
       </c>
       <c r="G50" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E50,fw_,D50,Tres_,PVT_str_)</f>
-        <v>114.79763442816692</v>
+        <v>114.80201975798941</v>
       </c>
       <c r="H50" s="10">
         <f>[1]!MF_gas_fraction_d(D50,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" s="14">
         <f t="shared" si="0"/>
         <v>109.10622200061272</v>
@@ -3306,14 +3308,14 @@
       </c>
       <c r="G51" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E51,fw_,D51,Tres_,PVT_str_)</f>
-        <v>126.50353230307131</v>
+        <v>126.507041162972</v>
       </c>
       <c r="H51" s="10">
         <f>[1]!MF_gas_fraction_d(D51,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" s="14">
         <f t="shared" si="0"/>
         <v>119.02496945521388</v>
@@ -3328,14 +3330,14 @@
       </c>
       <c r="G52" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E52,fw_,D52,Tres_,PVT_str_)</f>
-        <v>138.287104544736</v>
+        <v>138.28927286883359</v>
       </c>
       <c r="H52" s="10">
         <f>[1]!MF_gas_fraction_d(D52,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C53" s="14">
         <f t="shared" si="0"/>
         <v>128.94371690981504</v>
@@ -3350,58 +3352,58 @@
       </c>
       <c r="G53" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E53,fw_,D53,Tres_,PVT_str_)</f>
-        <v>150.16749411795843</v>
+        <v>150.16773942848292</v>
       </c>
       <c r="H53" s="10">
         <f>[1]!MF_gas_fraction_d(D53,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" s="14">
         <f t="shared" si="0"/>
         <v>138.86246436441618</v>
       </c>
       <c r="D54" s="9">
         <f>[1]!IPR_pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
-        <v>110.89439013405214</v>
+        <v>110.89439013405213</v>
       </c>
       <c r="E54" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D54,fw_,Pb_)</f>
-        <v>138.86246436441624</v>
+        <v>138.86246436441616</v>
       </c>
       <c r="G54" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E54,fw_,D54,Tres_,PVT_str_)</f>
-        <v>169.43647302473826</v>
+        <v>168.09411887438162</v>
       </c>
       <c r="H54" s="10">
         <f>[1]!MF_gas_fraction_d(D54,Tres_,fw_,PVT_str_)</f>
-        <v>5.4969555207744616E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+        <v>4.7405492764113481E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" s="14">
         <f t="shared" si="0"/>
         <v>148.78121181901733</v>
       </c>
       <c r="D55" s="9">
         <f>[1]!IPR_pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
-        <v>100.02727433529388</v>
+        <v>100.02727433529387</v>
       </c>
       <c r="E55" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D55,fw_,Pb_)</f>
-        <v>148.78121181901744</v>
+        <v>148.78121181901739</v>
       </c>
       <c r="G55" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E55,fw_,D55,Tres_,PVT_str_)</f>
-        <v>192.75304291394997</v>
+        <v>189.7818482430749</v>
       </c>
       <c r="H55" s="10">
         <f>[1]!MF_gas_fraction_d(D55,Tres_,fw_,PVT_str_)</f>
-        <v>0.1198770739868955</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.10606398003000826</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" s="14">
         <f t="shared" si="0"/>
         <v>158.69995927361848</v>
@@ -3412,18 +3414,18 @@
       </c>
       <c r="E56" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D56,fw_,Pb_)</f>
-        <v>158.69995927361836</v>
+        <v>158.69995927361862</v>
       </c>
       <c r="G56" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E56,fw_,D56,Tres_,PVT_str_)</f>
-        <v>222.094070855702</v>
+        <v>217.33157026860897</v>
       </c>
       <c r="H56" s="10">
         <f>[1]!MF_gas_fraction_d(D56,Tres_,fw_,PVT_str_)</f>
-        <v>0.194852955458755</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.17716080918997171</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" s="14">
         <f t="shared" si="0"/>
         <v>168.61870672821962</v>
@@ -3434,40 +3436,40 @@
       </c>
       <c r="E57" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D57,fw_,Pb_)</f>
-        <v>168.61870672821959</v>
+        <v>168.61870672821951</v>
       </c>
       <c r="G57" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E57,fw_,D57,Tres_,PVT_str_)</f>
-        <v>262.23047457210657</v>
+        <v>255.66074585936946</v>
       </c>
       <c r="H57" s="10">
         <f>[1]!MF_gas_fraction_d(D57,Tres_,fw_,PVT_str_)</f>
-        <v>0.28468458401074792</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.26624346318470665</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" s="14">
         <f t="shared" si="0"/>
         <v>178.53745418282077</v>
       </c>
       <c r="D58" s="9">
         <f>[1]!IPR_pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
-        <v>59.833402917957898</v>
+        <v>59.833402917957891</v>
       </c>
       <c r="E58" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D58,fw_,Pb_)</f>
-        <v>178.53745418282082</v>
+        <v>178.53745418282074</v>
       </c>
       <c r="G58" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E58,fw_,D58,Tres_,PVT_str_)</f>
-        <v>325.78606278517208</v>
+        <v>317.73047354511971</v>
       </c>
       <c r="H58" s="10">
         <f>[1]!MF_gas_fraction_d(D58,Tres_,fw_,PVT_str_)</f>
-        <v>0.39896468138768959</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.3836613043519102</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" s="14">
         <f t="shared" si="0"/>
         <v>188.45620163742191</v>
@@ -3478,25 +3480,25 @@
       </c>
       <c r="E59" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D59,fw_,Pb_)</f>
-        <v>188.45620163742174</v>
+        <v>188.45620163742197</v>
       </c>
       <c r="G59" s="9">
         <f>[1]!MF_q_mix_rc_m3day(E59,fw_,D59,Tres_,PVT_str_)</f>
-        <v>465.75856271997071</v>
+        <v>457.42694238338601</v>
       </c>
       <c r="H59" s="10">
         <f>[1]!MF_gas_fraction_d(D59,Tres_,fw_,PVT_str_)</f>
-        <v>0.56366548959158924</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.55565884481981209</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C60" s="14">
         <f t="shared" si="0"/>
         <v>198.37494909202306</v>
       </c>
       <c r="D60" s="9">
         <f>[1]!IPR_pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
-        <v>2.8181536965155018E-13</v>
+        <v>2.8374524951857438E-13</v>
       </c>
       <c r="E60" s="9">
         <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D60,fw_,Pb_)</f>

--- a/exercises/ex020.IPR.xlsx
+++ b/exercises/ex020.IPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB9A0A1-62AA-4884-9239-5826BED31AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051FEA75-6992-4820-9683-3CF3841FFE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29100" yWindow="1005" windowWidth="24885" windowHeight="18330" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -2168,6 +2168,740 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Индикаторная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> кривая</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4282688271518871E-2"/>
+          <c:y val="0.10465538417239591"/>
+          <c:w val="0.79459995901803337"/>
+          <c:h val="0.70531459280289899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IPR!$C$40:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9187474546011547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.837494909202309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.756242363803466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.674989818404619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.593737273005772</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.512484727606925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.431232182208078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.349979636809238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.268727091410398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.187474546011558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.10622200061272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.02496945521388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.94371690981504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>138.86246436441618</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.78121181901733</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158.69995927361848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>168.61870672821962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.53745418282077</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188.45620163742191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>198.37494909202306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IPR!$D$40:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.08125254539885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.16250509079768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.24375763619653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210.32501018159539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.40626272699421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.48751527239307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.56876781779192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170.65002036319078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.7312729085896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.81252545398843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140.89377799938728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.97503054478614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.05628309018496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.89439013405213</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.02727433529387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.220870330268156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.082562520816197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.833402917957891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.383204097085397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8374524951857438E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D7A-4731-8948-B9E2A56CCEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IPR!$E$40:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9187474546011458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.83749490920232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.756242363803466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.674989818404612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.593737273005786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.512484727606932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.431232182208078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.349979636809223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.268727091410398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.187474546011572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.10622200061272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.02496945521386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.94371690981504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>138.86246436441616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.78121181901739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158.69995927361862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>168.61870672821951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.53745418282074</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188.45620163742197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>198.37494909202306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IPR!$D$40:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.08125254539885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.16250509079768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.24375763619653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210.32501018159539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.40626272699421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.48751527239307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.56876781779192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170.65002036319078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.7312729085896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.81252545398843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140.89377799938728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.97503054478614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.05628309018496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.89439013405213</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.02727433529387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.220870330268156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.082562520816197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.833402917957891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.383204097085397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8374524951857438E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D7A-4731-8948-B9E2A56CCEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IPR</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IPR!$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IPR!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D7A-4731-8948-B9E2A56CCEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="228804864"/>
+        <c:axId val="228805440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="228804864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м3/сут</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39625196877125629"/>
+              <c:y val="0.86477093200508615"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228805440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="228805440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление на забое, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228804864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17383125365765967"/>
+          <c:y val="0.9018607521159262"/>
+          <c:w val="0.61696292906975947"/>
+          <c:h val="8.8113842295896819E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2289,15 +3023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103829</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>81373</xdr:rowOff>
+      <xdr:colOff>141929</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>559174</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:colOff>597274</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2357,6 +3091,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522020</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>25643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76E7A69-BFCF-430D-9C81-7C5ACB317484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2692,8 +3464,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>

--- a/exercises/ex020.IPR.xlsx
+++ b/exercises/ex020.IPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051FEA75-6992-4820-9683-3CF3841FFE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DDB31-0EE9-4414-9BE6-2F6256CF3ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29100" yWindow="1005" windowWidth="24885" windowHeight="18330" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -3061,15 +3061,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:colOff>70596</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>7109</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>102402</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>597659</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140502</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3464,8 +3464,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
